--- a/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,84</t>
+          <t>8,96; 12,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 12,89</t>
+          <t>8,21; 12,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 18,5</t>
+          <t>13,5; 18,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,38; 59,62</t>
+          <t>51,88; 59,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,78; 65,72</t>
+          <t>60,83; 66,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,45; 64,92</t>
+          <t>59,27; 64,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,26; 67,61</t>
+          <t>61,04; 67,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,59; 86,84</t>
+          <t>82,57; 86,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,3; 42,05</t>
+          <t>38,46; 42,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,08; 42,19</t>
+          <t>38,05; 42,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,0; 45,78</t>
+          <t>41,05; 45,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,17; 75,41</t>
+          <t>71,07; 75,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,12</t>
+          <t>5,62; 8,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,74</t>
+          <t>7,03; 9,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 14,43</t>
+          <t>11,52; 14,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,5; 66,96</t>
+          <t>58,58; 66,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,8; 53,65</t>
+          <t>48,73; 53,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,26; 56,19</t>
+          <t>51,35; 56,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 56,33</t>
+          <t>51,66; 56,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,75; 94,68</t>
+          <t>91,58; 94,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,71; 29,82</t>
+          <t>26,64; 29,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 31,19</t>
+          <t>28,08; 31,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 34,61</t>
+          <t>31,64; 34,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,73; 81,02</t>
+          <t>75,69; 81,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,88</t>
+          <t>6,48; 12,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 15,28</t>
+          <t>8,98; 15,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 21,86</t>
+          <t>15,23; 22,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,31; 75,98</t>
+          <t>68,36; 76,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,39; 42,67</t>
+          <t>33,58; 42,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,7; 45,17</t>
+          <t>35,25; 45,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,48; 47,07</t>
+          <t>38,55; 47,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,76; 92,54</t>
+          <t>87,87; 92,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,13</t>
+          <t>19,95; 25,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,06; 29,26</t>
+          <t>22,9; 29,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,86; 33,65</t>
+          <t>28,0; 33,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>79,36; 84,04</t>
+          <t>79,36; 83,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,5</t>
+          <t>7,45; 9,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,47</t>
+          <t>8,32; 10,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 15,65</t>
+          <t>13,08; 15,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,78; 66,37</t>
+          <t>61,2; 66,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,43; 55,94</t>
+          <t>52,28; 55,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,4; 56,88</t>
+          <t>53,51; 56,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,62; 57,06</t>
+          <t>53,55; 56,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,7; 92,12</t>
+          <t>89,67; 91,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,79</t>
+          <t>30,48; 32,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,5; 33,85</t>
+          <t>31,53; 33,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,05; 36,41</t>
+          <t>34,14; 36,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,11; 79,81</t>
+          <t>76,16; 79,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,91</t>
+          <t>9,1; 12,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,31</t>
+          <t>8,38; 12,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,5; 18,52</t>
+          <t>13,32; 18,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,83; 66,16</t>
+          <t>60,57; 66,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,27; 64,74</t>
+          <t>59,15; 64,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 67,76</t>
+          <t>61,29; 67,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 42,45</t>
+          <t>38,25; 42,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,05; 42,21</t>
+          <t>38,22; 42,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,05; 45,75</t>
+          <t>41,11; 45,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,16</t>
+          <t>5,53; 8,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 9,53</t>
+          <t>7,01; 9,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,57</t>
+          <t>11,55; 14,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,73; 53,87</t>
+          <t>48,76; 53,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,35; 56,01</t>
+          <t>51,47; 56,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,66; 56,31</t>
+          <t>51,87; 56,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,64; 29,89</t>
+          <t>26,77; 29,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,08; 31,31</t>
+          <t>28,31; 31,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,64; 34,71</t>
+          <t>31,61; 34,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,03</t>
+          <t>6,58; 12,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,2</t>
+          <t>9,27; 15,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 22,17</t>
+          <t>15,19; 22,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,58; 42,48</t>
+          <t>33,21; 42,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,25; 45,2</t>
+          <t>35,31; 45,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,55; 47,28</t>
+          <t>38,85; 47,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 25,09</t>
+          <t>19,91; 25,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,05</t>
+          <t>22,65; 28,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,0; 33,6</t>
+          <t>27,99; 33,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,46</t>
+          <t>7,46; 9,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,42</t>
+          <t>8,38; 10,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,61</t>
+          <t>13,24; 15,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,28; 55,73</t>
+          <t>52,27; 55,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,51; 56,8</t>
+          <t>53,36; 57,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 56,97</t>
+          <t>53,68; 57,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,48; 32,88</t>
+          <t>30,46; 32,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,53; 33,81</t>
+          <t>31,48; 33,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,14; 36,45</t>
+          <t>34,1; 36,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>73,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,91</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 12,5</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 18,59</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 59,79</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,57; 66,07</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,15; 64,94</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,29; 67,86</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,57; 86,73</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,25; 42,38</t>
+          <t>0; 0,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,22; 42,25</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,11; 45,73</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,07; 75,46</t>
+          <t>0; 0,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,18</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 9,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 14,61</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,58; 66,86</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,76; 53,8</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,47; 56,12</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 56,44</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,58; 94,53</t>
+          <t>0; 0,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,77; 29,87</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,33</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 34,54</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,69; 81,08</t>
+          <t>0; 0,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,07</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,33</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,42</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,36; 76,11</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,21; 42,57</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,31; 45,01</t>
+          <t>0; 0,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,85; 47,45</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,87; 92,71</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,91; 25,19</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,65; 28,79</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,99; 33,64</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>79,36; 83,75</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,49</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,35</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,68</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,2; 66,47</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,27; 55,84</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,36; 57,0</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,68; 57,16</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,67; 91,91</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,48; 33,89</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,1; 36,47</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,16; 79,71</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1907</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1899</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1429</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2139</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1016</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2208</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1960</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1471</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2019</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2132</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1262</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2121</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1489</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1311</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1566</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>